--- a/biology/Botanique/Dorstenia_poinsettiifolia/Dorstenia_poinsettiifolia.xlsx
+++ b/biology/Botanique/Dorstenia_poinsettiifolia/Dorstenia_poinsettiifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorstenia poinsettiifolia Engl. est une espèce de plantes à fleurs de la famille des Moraceae et du genre Dorstenia, présente en Afrique tropicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une herbe à rhizomes rampants. Sa tige est haute de 1,5 m avec une base ligneuse. Sa partie supérieure est glabre ou avec de courts poils blancs. Ses feuilles sont spiralées, son limbe oblong à elliptique et acuminée. Son inflorescence est solitaire ou groupée par 2-4 à l'aisselle des feuilles. Son pédoncule est glabre à pubérulent. Ses fleurs sont trilobés et nombreuses.
 </t>
@@ -542,7 +556,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est présente dans la forêt ripicole et marécageuse.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve au Cameroun et au Gabon.
 </t>
@@ -604,14 +622,16 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (10 février 2018)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (10 février 2018) :
 variété Dorstenia poinsettiifolia var. angusta (Engl.) Hijman &amp; C.C.Berg
 variété Dorstenia poinsettiifolia var. librevillensis (De Wild.) Hijman &amp; C.C.Berg
 variété Dorstenia poinsettiifolia var. longicauda (Engl.) Hijman &amp; C.C.Berg
 variété Dorstenia poinsettiifolia var. staudtii (Engl.) Hijman &amp; C.C.Berg
-Selon Tropicos                                           (10 février 2018)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 février 2018) (Attention liste brute contenant possiblement des synonymes) :
 variété Dorstenia poinsettiifolia var. achoundongiana Cheek &amp; Bygrave
 variété Dorstenia poinsettiifolia var. angularis Hijman &amp; C.C. Berg
 variété Dorstenia poinsettiifolia var. angusta (Engl.) Hijman &amp; C.C. Berg
